--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>twelth day of the month</t>
+          <t>twelfth day of the month</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>thiry-first day of the month</t>
+          <t>thirty-first day of the month</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
